--- a/data/trans_orig/P21D2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{491F449C-940F-458B-8638-0D897EC6DA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC59FB6B-88A2-4BFE-AF22-7DC964E59985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{75058477-E36B-40B0-9AC3-F9A2ECECF0B8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BB6FB006-C6C9-4542-83F7-65874879E32F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="296">
-  <si>
-    <t>Población que, necesitandolo, no pudo recibir atención dental en 2023 (Tasa respuesta: 43,85%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="298">
+  <si>
+    <t>Población que, necesitándolo, no pudo recibir atención dental en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>32,22%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
   </si>
   <si>
     <t>19,25%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
   </si>
   <si>
     <t>25,95%</t>
   </si>
   <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>60,97%</t>
   </si>
   <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
   </si>
   <si>
     <t>72,81%</t>
   </si>
   <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -134,793 +134,799 @@
     <t>1,51%</t>
   </si>
   <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>2,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1335,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CE34B4-80B4-4DCE-A28C-7881CC4DBBEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81096264-6BF3-4DAD-BF20-B474651CF2AF}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1594,16 +1600,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>12</v>
@@ -1612,13 +1618,13 @@
         <v>6657</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -1627,13 +1633,13 @@
         <v>4430</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -1642,13 +1648,13 @@
         <v>11087</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1663,13 +1669,13 @@
         <v>125492</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>233</v>
@@ -1678,13 +1684,13 @@
         <v>117523</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>386</v>
@@ -1693,18 +1699,18 @@
         <v>243015</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1716,13 +1722,13 @@
         <v>59103</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>111</v>
@@ -1731,13 +1737,13 @@
         <v>86608</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>158</v>
@@ -1746,13 +1752,13 @@
         <v>145710</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,13 +1773,13 @@
         <v>136483</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>196</v>
@@ -1782,13 +1788,13 @@
         <v>154197</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>297</v>
@@ -1797,13 +1803,13 @@
         <v>290680</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,13 +1824,13 @@
         <v>8572</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -1833,13 +1839,13 @@
         <v>8766</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -1848,19 +1854,19 @@
         <v>17338</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>7</v>
@@ -1869,13 +1875,13 @@
         <v>7115</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -1884,13 +1890,13 @@
         <v>5644</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -1899,13 +1905,13 @@
         <v>12760</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1920,13 +1926,13 @@
         <v>211273</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>326</v>
@@ -1935,13 +1941,13 @@
         <v>255215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>486</v>
@@ -1950,18 +1956,18 @@
         <v>466488</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1973,13 +1979,13 @@
         <v>57514</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>109</v>
@@ -1988,13 +1994,13 @@
         <v>76696</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>176</v>
@@ -2003,13 +2009,13 @@
         <v>134210</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,13 +2030,13 @@
         <v>38416</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>107</v>
@@ -2039,13 +2045,13 @@
         <v>73334</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -2054,13 +2060,13 @@
         <v>111750</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2090,13 +2096,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2105,19 +2111,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -2126,13 +2132,13 @@
         <v>1734</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -2141,13 +2147,13 @@
         <v>5236</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2156,13 +2162,13 @@
         <v>6970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,13 +2183,13 @@
         <v>97664</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -2192,13 +2198,13 @@
         <v>155266</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>336</v>
@@ -2207,18 +2213,18 @@
         <v>252930</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2230,13 +2236,13 @@
         <v>34560</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>99</v>
@@ -2245,13 +2251,13 @@
         <v>74247</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -2260,13 +2266,13 @@
         <v>108807</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,13 +2287,13 @@
         <v>112590</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>176</v>
@@ -2296,13 +2302,13 @@
         <v>131141</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>265</v>
@@ -2311,13 +2317,13 @@
         <v>243731</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,13 +2338,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2347,13 +2353,13 @@
         <v>432</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2362,19 +2368,19 @@
         <v>432</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2383,13 +2389,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2398,13 +2404,13 @@
         <v>1341</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2413,13 +2419,13 @@
         <v>1341</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2440,13 @@
         <v>147150</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>278</v>
@@ -2449,13 +2455,13 @@
         <v>207161</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>409</v>
@@ -2464,18 +2470,18 @@
         <v>354311</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2487,13 +2493,13 @@
         <v>52594</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>81</v>
@@ -2502,13 +2508,13 @@
         <v>36337</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>153</v>
@@ -2517,13 +2523,13 @@
         <v>88931</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2544,13 @@
         <v>23350</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -2553,13 +2559,13 @@
         <v>39683</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -2592,7 +2598,7 @@
         <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>165</v>
@@ -2631,7 +2637,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -2640,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>172</v>
@@ -2655,13 +2661,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2670,13 +2676,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2697,13 @@
         <v>78042</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>163</v>
@@ -2706,13 +2712,13 @@
         <v>79356</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>271</v>
@@ -2721,18 +2727,18 @@
         <v>157398</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2744,13 +2750,13 @@
         <v>46713</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H29" s="7">
         <v>72</v>
@@ -2759,13 +2765,13 @@
         <v>37575</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="M29" s="7">
         <v>146</v>
@@ -2774,13 +2780,13 @@
         <v>84288</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,13 +2801,13 @@
         <v>75994</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H30" s="7">
         <v>118</v>
@@ -2810,13 +2816,13 @@
         <v>76026</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M30" s="7">
         <v>210</v>
@@ -2825,13 +2831,13 @@
         <v>152019</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,13 +2852,13 @@
         <v>811</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -2861,13 +2867,13 @@
         <v>789</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -2876,19 +2882,19 @@
         <v>1600</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>10</v>
@@ -2897,13 +2903,13 @@
         <v>6591</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -2915,10 +2921,10 @@
         <v>166</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -2927,10 +2933,10 @@
         <v>11611</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>205</v>
@@ -2948,13 +2954,13 @@
         <v>130109</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>200</v>
@@ -2963,13 +2969,13 @@
         <v>119410</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>377</v>
@@ -2978,13 +2984,13 @@
         <v>249518</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3109,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -3118,13 +3124,13 @@
         <v>858</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3133,19 +3139,19 @@
         <v>858</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>141</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3154,13 +3160,13 @@
         <v>1122</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
@@ -3169,13 +3175,13 @@
         <v>6317</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M37" s="7">
         <v>11</v>
@@ -3184,13 +3190,13 @@
         <v>7438</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3211,13 @@
         <v>312072</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>435</v>
@@ -3220,13 +3226,13 @@
         <v>326676</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>720</v>
@@ -3235,18 +3241,18 @@
         <v>638748</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3258,13 +3264,13 @@
         <v>241394</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H39" s="7">
         <v>315</v>
@@ -3273,13 +3279,13 @@
         <v>252930</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M39" s="7">
         <v>536</v>
@@ -3288,13 +3294,13 @@
         <v>494324</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3315,13 @@
         <v>173164</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H40" s="7">
         <v>193</v>
@@ -3324,13 +3330,13 @@
         <v>156151</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M40" s="7">
         <v>303</v>
@@ -3339,13 +3345,13 @@
         <v>329315</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3366,13 @@
         <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3375,13 +3381,13 @@
         <v>644</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -3390,19 +3396,19 @@
         <v>644</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="7">
         <v>2</v>
@@ -3411,13 +3417,13 @@
         <v>2173</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H42" s="7">
         <v>7</v>
@@ -3426,13 +3432,13 @@
         <v>12380</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M42" s="7">
         <v>9</v>
@@ -3441,13 +3447,13 @@
         <v>14552</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,13 +3468,13 @@
         <v>416730</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" s="7">
         <v>516</v>
@@ -3477,13 +3483,13 @@
         <v>422105</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M43" s="7">
         <v>849</v>
@@ -3492,13 +3498,13 @@
         <v>838835</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3521,13 @@
         <v>626909</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H44" s="7">
         <v>941</v>
@@ -3530,13 +3536,13 @@
         <v>665022</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M44" s="7">
         <v>1603</v>
@@ -3545,13 +3551,13 @@
         <v>1291931</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,13 +3572,13 @@
         <v>852856</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H45" s="7">
         <v>1350</v>
@@ -3581,13 +3587,13 @@
         <v>957593</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M45" s="7">
         <v>2102</v>
@@ -3596,13 +3602,13 @@
         <v>1810449</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3623,13 @@
         <v>13375</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H46" s="7">
         <v>27</v>
@@ -3632,13 +3638,13 @@
         <v>19731</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="M46" s="7">
         <v>39</v>
@@ -3647,19 +3653,19 @@
         <v>33106</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47" s="7">
         <v>34</v>
@@ -3668,13 +3674,13 @@
         <v>25391</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>289</v>
+        <v>196</v>
       </c>
       <c r="H47" s="7">
         <v>56</v>
@@ -3683,13 +3689,13 @@
         <v>40368</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M47" s="7">
         <v>90</v>
@@ -3698,13 +3704,13 @@
         <v>65759</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3725,13 @@
         <v>1518531</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" s="7">
         <v>2374</v>
@@ -3734,13 +3740,13 @@
         <v>1682713</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M48" s="7">
         <v>3834</v>
@@ -3749,18 +3755,18 @@
         <v>3201244</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC59FB6B-88A2-4BFE-AF22-7DC964E59985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C7356C2-5E1C-4517-9006-CBB68E3DBD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BB6FB006-C6C9-4542-83F7-65874879E32F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A23AFA56-6BCF-4FBA-9D1E-0B0A6AF9B56A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1341,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81096264-6BF3-4DAD-BF20-B474651CF2AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371ABAC8-E955-44C9-B50C-7FB14ADB0A5B}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C7356C2-5E1C-4517-9006-CBB68E3DBD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{684B479A-5EB4-4CA1-B083-94E7A35677D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A23AFA56-6BCF-4FBA-9D1E-0B0A6AF9B56A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FAF6470C-8669-45A6-9CF6-58B503F4F5E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="296">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención dental en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>32,22%</t>
   </si>
   <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
   </si>
   <si>
     <t>19,25%</t>
   </si>
   <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
   </si>
   <si>
     <t>25,95%</t>
   </si>
   <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>60,97%</t>
   </si>
   <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
   </si>
   <si>
     <t>72,81%</t>
   </si>
   <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -134,799 +134,793 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
   </si>
   <si>
     <t>32,71%</t>
   </si>
   <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1341,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371ABAC8-E955-44C9-B50C-7FB14ADB0A5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195EA6BC-EAAB-44A1-A276-30F8F9836989}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1600,16 +1594,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>12</v>
@@ -1618,13 +1612,13 @@
         <v>6657</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -1633,13 +1627,13 @@
         <v>4430</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -1648,13 +1642,13 @@
         <v>11087</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1669,13 +1663,13 @@
         <v>125492</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>233</v>
@@ -1684,13 +1678,13 @@
         <v>117523</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>386</v>
@@ -1699,18 +1693,18 @@
         <v>243015</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1722,13 +1716,13 @@
         <v>59103</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>111</v>
@@ -1737,13 +1731,13 @@
         <v>86608</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>158</v>
@@ -1752,13 +1746,13 @@
         <v>145710</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,13 +1767,13 @@
         <v>136483</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>196</v>
@@ -1788,13 +1782,13 @@
         <v>154197</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>297</v>
@@ -1803,13 +1797,13 @@
         <v>290680</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,13 +1818,13 @@
         <v>8572</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -1839,13 +1833,13 @@
         <v>8766</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -1854,19 +1848,19 @@
         <v>17338</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>7</v>
@@ -1875,13 +1869,13 @@
         <v>7115</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -1890,13 +1884,13 @@
         <v>5644</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -1905,13 +1899,13 @@
         <v>12760</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,13 +1920,13 @@
         <v>211273</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>326</v>
@@ -1941,13 +1935,13 @@
         <v>255215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>486</v>
@@ -1956,18 +1950,18 @@
         <v>466488</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1979,13 +1973,13 @@
         <v>57514</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>109</v>
@@ -1994,13 +1988,13 @@
         <v>76696</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>176</v>
@@ -2009,13 +2003,13 @@
         <v>134210</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,13 +2024,13 @@
         <v>38416</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>107</v>
@@ -2045,13 +2039,13 @@
         <v>73334</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -2060,13 +2054,13 @@
         <v>111750</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2081,13 +2075,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2096,13 +2090,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2111,19 +2105,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -2132,13 +2126,13 @@
         <v>1734</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -2147,13 +2141,13 @@
         <v>5236</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2162,13 +2156,13 @@
         <v>6970</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2177,13 @@
         <v>97664</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -2198,13 +2192,13 @@
         <v>155266</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>336</v>
@@ -2213,18 +2207,18 @@
         <v>252930</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2236,13 +2230,13 @@
         <v>34560</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>99</v>
@@ -2251,13 +2245,13 @@
         <v>74247</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -2266,13 +2260,13 @@
         <v>108807</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2281,13 @@
         <v>112590</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>176</v>
@@ -2302,13 +2296,13 @@
         <v>131141</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>265</v>
@@ -2317,13 +2311,13 @@
         <v>243731</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2353,13 +2347,13 @@
         <v>432</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2368,19 +2362,19 @@
         <v>432</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2389,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2404,13 +2398,13 @@
         <v>1341</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2419,13 +2413,13 @@
         <v>1341</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2434,13 @@
         <v>147150</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>278</v>
@@ -2455,13 +2449,13 @@
         <v>207161</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>409</v>
@@ -2470,18 +2464,18 @@
         <v>354311</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2493,13 +2487,13 @@
         <v>52594</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>81</v>
@@ -2508,13 +2502,13 @@
         <v>36337</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>153</v>
@@ -2523,13 +2517,13 @@
         <v>88931</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2538,13 @@
         <v>23350</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -2559,13 +2553,13 @@
         <v>39683</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -2598,7 +2592,7 @@
         <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>165</v>
@@ -2637,7 +2631,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -2646,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>172</v>
@@ -2661,13 +2655,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2676,13 +2670,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2691,13 @@
         <v>78042</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>163</v>
@@ -2712,13 +2706,13 @@
         <v>79356</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>271</v>
@@ -2727,18 +2721,18 @@
         <v>157398</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2750,13 +2744,13 @@
         <v>46713</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H29" s="7">
         <v>72</v>
@@ -2765,13 +2759,13 @@
         <v>37575</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="M29" s="7">
         <v>146</v>
@@ -2780,13 +2774,13 @@
         <v>84288</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2795,13 @@
         <v>75994</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H30" s="7">
         <v>118</v>
@@ -2816,13 +2810,13 @@
         <v>76026</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M30" s="7">
         <v>210</v>
@@ -2831,13 +2825,13 @@
         <v>152019</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2846,13 @@
         <v>811</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -2867,13 +2861,13 @@
         <v>789</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -2882,19 +2876,19 @@
         <v>1600</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>10</v>
@@ -2903,13 +2897,13 @@
         <v>6591</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -2921,10 +2915,10 @@
         <v>166</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -2933,10 +2927,10 @@
         <v>11611</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>205</v>
@@ -2954,13 +2948,13 @@
         <v>130109</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>200</v>
@@ -2969,13 +2963,13 @@
         <v>119410</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>377</v>
@@ -2984,13 +2978,13 @@
         <v>249518</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3103,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -3124,13 +3118,13 @@
         <v>858</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3139,19 +3133,19 @@
         <v>858</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3160,13 +3154,13 @@
         <v>1122</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
@@ -3175,13 +3169,13 @@
         <v>6317</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M37" s="7">
         <v>11</v>
@@ -3190,13 +3184,13 @@
         <v>7438</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3205,13 @@
         <v>312072</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>435</v>
@@ -3226,13 +3220,13 @@
         <v>326676</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>720</v>
@@ -3241,18 +3235,18 @@
         <v>638748</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3264,13 +3258,13 @@
         <v>241394</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H39" s="7">
         <v>315</v>
@@ -3279,13 +3273,13 @@
         <v>252930</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M39" s="7">
         <v>536</v>
@@ -3294,13 +3288,13 @@
         <v>494324</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3309,13 @@
         <v>173164</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H40" s="7">
         <v>193</v>
@@ -3330,13 +3324,13 @@
         <v>156151</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M40" s="7">
         <v>303</v>
@@ -3345,13 +3339,13 @@
         <v>329315</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3381,13 +3375,13 @@
         <v>644</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -3396,19 +3390,19 @@
         <v>644</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7">
         <v>2</v>
@@ -3417,13 +3411,13 @@
         <v>2173</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H42" s="7">
         <v>7</v>
@@ -3432,13 +3426,13 @@
         <v>12380</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M42" s="7">
         <v>9</v>
@@ -3447,13 +3441,13 @@
         <v>14552</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3462,13 @@
         <v>416730</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" s="7">
         <v>516</v>
@@ -3483,13 +3477,13 @@
         <v>422105</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M43" s="7">
         <v>849</v>
@@ -3498,13 +3492,13 @@
         <v>838835</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3515,13 @@
         <v>626909</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H44" s="7">
         <v>941</v>
@@ -3536,13 +3530,13 @@
         <v>665022</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M44" s="7">
         <v>1603</v>
@@ -3551,13 +3545,13 @@
         <v>1291931</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3566,13 @@
         <v>852856</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H45" s="7">
         <v>1350</v>
@@ -3587,13 +3581,13 @@
         <v>957593</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M45" s="7">
         <v>2102</v>
@@ -3602,13 +3596,13 @@
         <v>1810449</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3617,13 @@
         <v>13375</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H46" s="7">
         <v>27</v>
@@ -3638,13 +3632,13 @@
         <v>19731</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="M46" s="7">
         <v>39</v>
@@ -3653,19 +3647,19 @@
         <v>33106</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="7">
         <v>34</v>
@@ -3674,13 +3668,13 @@
         <v>25391</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H47" s="7">
         <v>56</v>
@@ -3689,13 +3683,13 @@
         <v>40368</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M47" s="7">
         <v>90</v>
@@ -3704,13 +3698,13 @@
         <v>65759</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3719,13 @@
         <v>1518531</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H48" s="7">
         <v>2374</v>
@@ -3740,13 +3734,13 @@
         <v>1682713</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M48" s="7">
         <v>3834</v>
@@ -3755,18 +3749,18 @@
         <v>3201244</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{684B479A-5EB4-4CA1-B083-94E7A35677D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1C52BDF-4786-4BA4-AEA8-7D79B11A1A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FAF6470C-8669-45A6-9CF6-58B503F4F5E2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{186644B5-6C18-4095-B607-72918B0AD3E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="295">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención dental en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
@@ -71,856 +71,853 @@
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
+    <t>1,14%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>2,57%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1335,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195EA6BC-EAAB-44A1-A276-30F8F9836989}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB9F95A-62A1-43E3-AA2E-9CA2E72CE425}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1456,7 +1453,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="7">
-        <v>40434</v>
+        <v>47976</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1471,7 +1468,7 @@
         <v>51</v>
       </c>
       <c r="I4" s="7">
-        <v>22619</v>
+        <v>23565</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1486,7 +1483,7 @@
         <v>101</v>
       </c>
       <c r="N4" s="7">
-        <v>63053</v>
+        <v>71541</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1507,7 +1504,7 @@
         <v>87</v>
       </c>
       <c r="D5" s="7">
-        <v>76507</v>
+        <v>96453</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1522,7 +1519,7 @@
         <v>162</v>
       </c>
       <c r="I5" s="7">
-        <v>85569</v>
+        <v>91003</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1537,7 +1534,7 @@
         <v>249</v>
       </c>
       <c r="N5" s="7">
-        <v>162076</v>
+        <v>187456</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1558,7 +1555,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>1894</v>
+        <v>2062</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1573,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>4904</v>
+        <v>6967</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1588,67 +1585,67 @@
         <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>6798</v>
+        <v>9029</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>6657</v>
+        <v>7775</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>4430</v>
+        <v>4782</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>11087</v>
+        <v>12557</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,51 +1657,51 @@
         <v>153</v>
       </c>
       <c r="D8" s="7">
-        <v>125492</v>
+        <v>154266</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>233</v>
       </c>
       <c r="I8" s="7">
-        <v>117523</v>
+        <v>126317</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>386</v>
       </c>
       <c r="N8" s="7">
-        <v>243015</v>
+        <v>280583</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1713,46 +1710,46 @@
         <v>47</v>
       </c>
       <c r="D9" s="7">
-        <v>59103</v>
+        <v>59594</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>111</v>
       </c>
       <c r="I9" s="7">
-        <v>86608</v>
+        <v>80036</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>158</v>
       </c>
       <c r="N9" s="7">
-        <v>145710</v>
+        <v>139631</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,46 +1761,46 @@
         <v>101</v>
       </c>
       <c r="D10" s="7">
-        <v>136483</v>
+        <v>136187</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>196</v>
       </c>
       <c r="I10" s="7">
-        <v>154197</v>
+        <v>143904</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>297</v>
       </c>
       <c r="N10" s="7">
-        <v>290680</v>
+        <v>280091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,97 +1812,97 @@
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>8572</v>
+        <v>8652</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>8766</v>
+        <v>8120</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
       </c>
       <c r="N11" s="7">
-        <v>17338</v>
+        <v>16771</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>7115</v>
+        <v>6840</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>5644</v>
+        <v>5220</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
       </c>
       <c r="N12" s="7">
-        <v>12760</v>
+        <v>12061</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1920,48 +1917,48 @@
         <v>211273</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>326</v>
       </c>
       <c r="I13" s="7">
-        <v>255215</v>
+        <v>237281</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>486</v>
       </c>
       <c r="N13" s="7">
-        <v>466488</v>
+        <v>448554</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1970,46 +1967,46 @@
         <v>67</v>
       </c>
       <c r="D14" s="7">
-        <v>57514</v>
+        <v>55767</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>109</v>
       </c>
       <c r="I14" s="7">
-        <v>76696</v>
+        <v>71799</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>176</v>
       </c>
       <c r="N14" s="7">
-        <v>134210</v>
+        <v>127566</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,46 +2018,46 @@
         <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>38416</v>
+        <v>37451</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>107</v>
       </c>
       <c r="I15" s="7">
-        <v>73334</v>
+        <v>68887</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
       </c>
       <c r="N15" s="7">
-        <v>111750</v>
+        <v>106338</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,13 +2072,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2090,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2105,64 +2102,64 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1734</v>
+        <v>1693</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>5236</v>
+        <v>4856</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>6970</v>
+        <v>6549</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,51 +2171,51 @@
         <v>113</v>
       </c>
       <c r="D18" s="7">
-        <v>97664</v>
+        <v>94912</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
       </c>
       <c r="I18" s="7">
-        <v>155266</v>
+        <v>145541</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>336</v>
       </c>
       <c r="N18" s="7">
-        <v>252930</v>
+        <v>240453</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2227,46 +2224,46 @@
         <v>42</v>
       </c>
       <c r="D19" s="7">
-        <v>34560</v>
+        <v>33260</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>99</v>
       </c>
       <c r="I19" s="7">
-        <v>74247</v>
+        <v>124407</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
       </c>
       <c r="N19" s="7">
-        <v>108807</v>
+        <v>157668</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,46 +2275,46 @@
         <v>89</v>
       </c>
       <c r="D20" s="7">
-        <v>112590</v>
+        <v>108117</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>176</v>
       </c>
       <c r="I20" s="7">
-        <v>131141</v>
+        <v>120504</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>265</v>
       </c>
       <c r="N20" s="7">
-        <v>243731</v>
+        <v>228620</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,49 +2329,49 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2383,43 +2380,43 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>1341</v>
+        <v>1242</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1341</v>
+        <v>1242</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,51 +2428,51 @@
         <v>131</v>
       </c>
       <c r="D23" s="7">
-        <v>147150</v>
+        <v>141377</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>278</v>
       </c>
       <c r="I23" s="7">
-        <v>207161</v>
+        <v>246560</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>409</v>
       </c>
       <c r="N23" s="7">
-        <v>354311</v>
+        <v>387937</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2484,46 +2481,46 @@
         <v>72</v>
       </c>
       <c r="D24" s="7">
-        <v>52594</v>
+        <v>47523</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>81</v>
       </c>
       <c r="I24" s="7">
-        <v>36337</v>
+        <v>32621</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>153</v>
       </c>
       <c r="N24" s="7">
-        <v>88931</v>
+        <v>80143</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,46 +2532,46 @@
         <v>34</v>
       </c>
       <c r="D25" s="7">
-        <v>23350</v>
+        <v>21308</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
       </c>
       <c r="I25" s="7">
-        <v>39683</v>
+        <v>36004</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
       </c>
       <c r="N25" s="7">
-        <v>63033</v>
+        <v>57312</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,13 +2583,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>2098</v>
+        <v>1873</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>165</v>
@@ -2601,7 +2598,7 @@
         <v>4</v>
       </c>
       <c r="I26" s="7">
-        <v>3336</v>
+        <v>2737</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>166</v>
@@ -2616,7 +2613,7 @@
         <v>6</v>
       </c>
       <c r="N26" s="7">
-        <v>5434</v>
+        <v>4610</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>169</v>
@@ -2631,7 +2628,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -2640,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>172</v>
@@ -2655,13 +2652,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2670,13 +2667,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,51 +2685,51 @@
         <v>108</v>
       </c>
       <c r="D28" s="7">
-        <v>78042</v>
+        <v>70704</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>163</v>
       </c>
       <c r="I28" s="7">
-        <v>79356</v>
+        <v>71362</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>271</v>
       </c>
       <c r="N28" s="7">
-        <v>157398</v>
+        <v>142066</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2741,46 +2738,46 @@
         <v>74</v>
       </c>
       <c r="D29" s="7">
-        <v>46713</v>
+        <v>44979</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H29" s="7">
         <v>72</v>
       </c>
       <c r="I29" s="7">
-        <v>37575</v>
+        <v>35069</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="M29" s="7">
         <v>146</v>
       </c>
       <c r="N29" s="7">
-        <v>84288</v>
+        <v>80048</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,46 +2789,46 @@
         <v>92</v>
       </c>
       <c r="D30" s="7">
-        <v>75994</v>
+        <v>73547</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H30" s="7">
         <v>118</v>
       </c>
       <c r="I30" s="7">
-        <v>76026</v>
+        <v>70451</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="M30" s="7">
         <v>210</v>
       </c>
       <c r="N30" s="7">
-        <v>152019</v>
+        <v>143997</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>189</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,40 +2840,40 @@
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>811</v>
+        <v>766</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>789</v>
+        <v>734</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
       </c>
       <c r="N31" s="7">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>196</v>
@@ -2888,13 +2885,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>10</v>
       </c>
       <c r="D32" s="7">
-        <v>6591</v>
+        <v>6302</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>198</v>
@@ -2909,31 +2906,31 @@
         <v>8</v>
       </c>
       <c r="I32" s="7">
-        <v>5020</v>
+        <v>4698</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
       </c>
       <c r="N32" s="7">
-        <v>11611</v>
+        <v>11001</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,51 +2942,51 @@
         <v>177</v>
       </c>
       <c r="D33" s="7">
-        <v>130109</v>
+        <v>125594</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>200</v>
       </c>
       <c r="I33" s="7">
-        <v>119410</v>
+        <v>110952</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>377</v>
       </c>
       <c r="N33" s="7">
-        <v>249518</v>
+        <v>236546</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2998,46 +2995,46 @@
         <v>89</v>
       </c>
       <c r="D34" s="7">
-        <v>94597</v>
+        <v>93754</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H34" s="7">
         <v>103</v>
       </c>
       <c r="I34" s="7">
-        <v>78010</v>
+        <v>72749</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M34" s="7">
         <v>192</v>
       </c>
       <c r="N34" s="7">
-        <v>172607</v>
+        <v>166504</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,46 +3046,46 @@
         <v>195</v>
       </c>
       <c r="D35" s="7">
-        <v>216353</v>
+        <v>216906</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H35" s="7">
         <v>320</v>
       </c>
       <c r="I35" s="7">
-        <v>241491</v>
+        <v>225686</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M35" s="7">
         <v>515</v>
       </c>
       <c r="N35" s="7">
-        <v>457844</v>
+        <v>442591</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,94 +3100,94 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
       </c>
       <c r="I36" s="7">
-        <v>858</v>
+        <v>794</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
       </c>
       <c r="N36" s="7">
-        <v>858</v>
+        <v>794</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>1122</v>
+        <v>1076</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
       </c>
       <c r="I37" s="7">
-        <v>6317</v>
+        <v>5966</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M37" s="7">
         <v>11</v>
       </c>
       <c r="N37" s="7">
-        <v>7438</v>
+        <v>7042</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,51 +3199,51 @@
         <v>285</v>
       </c>
       <c r="D38" s="7">
-        <v>312072</v>
+        <v>311736</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>435</v>
       </c>
       <c r="I38" s="7">
-        <v>326676</v>
+        <v>305195</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>720</v>
       </c>
       <c r="N38" s="7">
-        <v>638748</v>
+        <v>616931</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3255,46 +3252,46 @@
         <v>221</v>
       </c>
       <c r="D39" s="7">
-        <v>241394</v>
+        <v>204817</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H39" s="7">
         <v>315</v>
       </c>
       <c r="I39" s="7">
-        <v>252930</v>
+        <v>209685</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M39" s="7">
         <v>536</v>
       </c>
       <c r="N39" s="7">
-        <v>494324</v>
+        <v>414501</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,25 +3303,25 @@
         <v>110</v>
       </c>
       <c r="D40" s="7">
-        <v>173164</v>
+        <v>347299</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>244</v>
+        <v>155</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H40" s="7">
         <v>193</v>
       </c>
       <c r="I40" s="7">
-        <v>156151</v>
+        <v>129045</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>248</v>
@@ -3336,7 +3333,7 @@
         <v>303</v>
       </c>
       <c r="N40" s="7">
-        <v>329315</v>
+        <v>476343</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>250</v>
@@ -3360,25 +3357,25 @@
         <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
       </c>
       <c r="I41" s="7">
-        <v>644</v>
+        <v>550</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>253</v>
@@ -3387,13 +3384,13 @@
         <v>1</v>
       </c>
       <c r="N41" s="7">
-        <v>644</v>
+        <v>550</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>254</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>255</v>
@@ -3402,19 +3399,19 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="7">
         <v>2</v>
       </c>
       <c r="D42" s="7">
-        <v>2173</v>
+        <v>1801</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>256</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>257</v>
@@ -3423,7 +3420,7 @@
         <v>7</v>
       </c>
       <c r="I42" s="7">
-        <v>12380</v>
+        <v>9669</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>258</v>
@@ -3438,16 +3435,16 @@
         <v>9</v>
       </c>
       <c r="N42" s="7">
-        <v>14552</v>
+        <v>11469</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>261</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,46 +3456,46 @@
         <v>333</v>
       </c>
       <c r="D43" s="7">
-        <v>416730</v>
+        <v>553916</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" s="7">
         <v>516</v>
       </c>
       <c r="I43" s="7">
-        <v>422105</v>
+        <v>348949</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M43" s="7">
         <v>849</v>
       </c>
       <c r="N43" s="7">
-        <v>838835</v>
+        <v>902864</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,46 +3509,46 @@
         <v>662</v>
       </c>
       <c r="D44" s="7">
-        <v>626909</v>
+        <v>587671</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H44" s="7">
         <v>941</v>
       </c>
       <c r="I44" s="7">
-        <v>665022</v>
+        <v>649931</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M44" s="7">
         <v>1603</v>
       </c>
       <c r="N44" s="7">
-        <v>1291931</v>
+        <v>1237602</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,46 +3560,46 @@
         <v>752</v>
       </c>
       <c r="D45" s="7">
-        <v>852856</v>
+        <v>1037267</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H45" s="7">
         <v>1350</v>
       </c>
       <c r="I45" s="7">
-        <v>957593</v>
+        <v>885482</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M45" s="7">
         <v>2102</v>
       </c>
       <c r="N45" s="7">
-        <v>1810449</v>
+        <v>1922749</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,43 +3611,43 @@
         <v>12</v>
       </c>
       <c r="D46" s="7">
-        <v>13375</v>
+        <v>13353</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>283</v>
+        <v>112</v>
       </c>
       <c r="H46" s="7">
         <v>27</v>
       </c>
       <c r="I46" s="7">
-        <v>19731</v>
+        <v>20309</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="K46" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M46" s="7">
         <v>39</v>
       </c>
       <c r="N46" s="7">
-        <v>33106</v>
+        <v>33662</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>286</v>
@@ -3659,52 +3656,52 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47" s="7">
         <v>34</v>
       </c>
       <c r="D47" s="7">
-        <v>25391</v>
+        <v>25487</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H47" s="7">
         <v>56</v>
       </c>
       <c r="I47" s="7">
-        <v>40368</v>
+        <v>36433</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M47" s="7">
         <v>90</v>
       </c>
       <c r="N47" s="7">
-        <v>65759</v>
+        <v>61921</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="P47" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,51 +3713,51 @@
         <v>1460</v>
       </c>
       <c r="D48" s="7">
-        <v>1518531</v>
+        <v>1663778</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" s="7">
         <v>2374</v>
       </c>
       <c r="I48" s="7">
-        <v>1682713</v>
+        <v>1592156</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M48" s="7">
         <v>3834</v>
       </c>
       <c r="N48" s="7">
-        <v>3201244</v>
+        <v>3255934</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
